--- a/doc/01 概要设计/概要设计.xlsx
+++ b/doc/01 概要设计/概要设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要设计" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>总体技术架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,76 +494,6 @@
   </si>
   <si>
     <t>每个权限都有一个功能一一对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每个功能，在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>PSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中均用一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>fid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>来表达，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>fid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在整个系统中是唯一</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2042,7 +1972,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_role</a:t>
+            <a:t>t_user_group</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2100,15 +2030,22 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>角色对应的权限</a:t>
+            <a:t>权限</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_role_permission</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>t_navigation</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2136,7 +2073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1466850" y="3143250"/>
+          <a:off x="1466850" y="1228725"/>
           <a:ext cx="1514475" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2166,7 +2103,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>角色对应的用户</a:t>
+            <a:t>用户</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -2174,7 +2111,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_role_user</a:t>
+            <a:t>t_user</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2442,7 +2379,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="254942" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -2450,173 +2387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="3419475"/>
-          <a:ext cx="254942" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1466850" y="4972050"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用户</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_user</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>489744</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153194</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>491332</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134144</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1757363" y="4505325"/>
-          <a:ext cx="933450" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2181225" y="4095750"/>
+          <a:off x="3038475" y="1504950"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2658,19 +2429,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="4714875"/>
-          <a:ext cx="256160" cy="264560"/>
+          <a:off x="2181225" y="2181225"/>
+          <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2697,451 +2468,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7067550" y="4876800"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>权限</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_permission</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>604044</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153194</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>605632</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38894</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直接连接符 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7405688" y="4457700"/>
-          <a:ext cx="838200" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7791450" y="4067175"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781925" y="4610100"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9363075" y="4876800"/>
-          <a:ext cx="1514475" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>功能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(fid)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>t_fid</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接连接符 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8582025" y="5324475"/>
-          <a:ext cx="781050" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562975" y="5114925"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9153525" y="5114925"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4205,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="14"/>
     </row>
@@ -4214,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="14"/>
     </row>
@@ -4264,12 +3590,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -4282,7 +3608,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -4292,7 +3618,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -4300,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -4308,12 +3634,12 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -4323,7 +3649,7 @@
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -4333,7 +3659,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4398,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C28"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4421,34 +3747,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+    <row r="16" spans="2:3">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4476,7 +3797,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4489,7 +3810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4503,7 +3824,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="35.25">
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -4511,17 +3832,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -4529,12 +3850,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -4542,12 +3863,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -4555,42 +3876,42 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -4598,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -4606,27 +3927,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -4634,7 +3955,7 @@
         <v>5.2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -4693,7 +4014,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="E50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -4701,17 +4022,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -4719,17 +4040,17 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="C57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="C58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
